--- a/working/rego/early.fecund.xlsx
+++ b/working/rego/early.fecund.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/working/rego/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7592AB08-7278-1E45-B0E3-4473574A28EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACDF4CE-8F31-384C-B718-B5DFEFF40C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6380" yWindow="3300" windowWidth="26840" windowHeight="15940" xr2:uid="{00E6D56A-91CB-AF4F-AA89-11DA05CD2DED}"/>
+    <workbookView xWindow="1960" yWindow="860" windowWidth="26840" windowHeight="15940" xr2:uid="{00E6D56A-91CB-AF4F-AA89-11DA05CD2DED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>cross</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>rF2</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,6 +470,18 @@
       <c r="C2">
         <v>9.6992481203007515</v>
       </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -478,6 +493,18 @@
       <c r="C3">
         <v>9.6992481203007515</v>
       </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -489,6 +516,18 @@
       <c r="C4">
         <v>11.278195488721805</v>
       </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -500,6 +539,18 @@
       <c r="C5">
         <v>11.052631578947368</v>
       </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -511,6 +562,18 @@
       <c r="C6">
         <v>9.9248120300751861</v>
       </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -521,6 +584,18 @@
       </c>
       <c r="C7">
         <v>17.593984962406015</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
